--- a/machine code example (add, addi, sub).xlsx
+++ b/machine code example (add, addi, sub).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kaust-my.sharepoint.com/personal/yangk0a_kaust_edu_sa/Documents/CS 294V System Architecture and Performance/course project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{718D70F6-3A93-4175-B02E-AF5E5F4BEFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE331F77-2291-4EBD-B65C-9AC2290DEC60}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{718D70F6-3A93-4175-B02E-AF5E5F4BEFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B77DA183-169D-41A5-9121-7ED0BB83B65A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="491" xr2:uid="{307FB8FA-991E-46BD-9566-A16C12FF64AB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="127">
   <si>
     <t>latch of rd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -552,6 +552,16 @@
   <si>
     <t>0110</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle 11</t>
+  </si>
+  <si>
+    <t>cycle 12</t>
   </si>
 </sst>
 </file>
@@ -686,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,6 +720,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44691E38-30DF-411C-B13D-7557B62A3905}">
-  <dimension ref="A1:AT23"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="AR15" sqref="AR15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,62 +1107,62 @@
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="12" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="8" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="8" t="s">
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="8" t="s">
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="8" t="s">
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="10"/>
+      <c r="AR1" s="11"/>
       <c r="AS1" s="3" t="s">
         <v>111</v>
       </c>
@@ -1572,337 +1585,337 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="5" t="s">
+      <c r="J5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="O5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT5" s="1" t="str">
+        <f t="shared" ref="AT5:AT6" si="0">_xlfn.CONCAT(C5:AS5)</f>
+        <v>0010XXXX0010XX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT5" s="1" t="str">
-        <f>_xlfn.CONCAT(C5:AS5)</f>
-        <v>000100XXXXXXXX00000001XX00XXXX0000000XXXX0000000000000XXXX0XX</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AS6" s="3" t="s">
+      <c r="O6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS6" s="8" t="s">
         <v>17</v>
       </c>
       <c r="AT6" s="1" t="str">
-        <f t="shared" ref="AT6:AT23" si="0">_xlfn.CONCAT(C6:AS6)</f>
-        <v>0000XXXXXXXXXX000000XXXX1001100000000XXXX0000000000000XXXX0XX</v>
+        <f t="shared" si="0"/>
+        <v>0000XXXXXXXXXX100100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="P7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="S7" s="3" t="s">
@@ -1933,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>36</v>
@@ -1987,26 +2000,26 @@
         <v>17</v>
       </c>
       <c r="AT7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0100XXXXXX01XX000000XXXX00XXXX0000001XXXX0000000000000XXXX0XX</v>
+        <f>_xlfn.CONCAT(C7:AS7)</f>
+        <v>0000XXXXXXXXXX00001000XX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>10</v>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>17</v>
@@ -2024,124 +2037,124 @@
         <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>10</v>
+      <c r="T8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AS8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AT8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0000XXXXXXXXXX100100XXXX00XXXX00000000000000000000000101100XX</v>
+        <f t="shared" ref="AT8:AT25" si="1">_xlfn.CONCAT(C8:AS8)</f>
+        <v>0000XXXXXXXXXX000000XXXX1001100000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2157,7 +2170,7 @@
         <v>17</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>17</v>
@@ -2172,57 +2185,57 @@
         <v>22</v>
       </c>
       <c r="O9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AC9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AF9" s="6" t="s">
+      <c r="AF9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AG9" s="3" t="s">
@@ -2234,7 +2247,7 @@
       <c r="AI9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AJ9" s="6" t="s">
+      <c r="AJ9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AK9" s="3" t="s">
@@ -2255,23 +2268,23 @@
       <c r="AP9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AQ9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR9" s="6" t="s">
-        <v>9</v>
+      <c r="AQ9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0000XXXXXXXXXX000010001000XXXX0000000XXXX0000000000000XXXX101</v>
+        <f t="shared" si="1"/>
+        <v>0100XXXXXX01XX000000XXXX00XXXX0000001XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2280,19 +2293,19 @@
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -2302,13 +2315,13 @@
         <v>17</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>10</v>
@@ -2323,94 +2336,94 @@
         <v>17</v>
       </c>
       <c r="S10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ10" s="6" t="s">
-        <v>36</v>
+      <c r="AQ10" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="AR10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AS10" s="6" t="s">
+      <c r="AS10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AT10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX</v>
+        <f t="shared" si="1"/>
+        <v>0000XXXXXXXXXX100100XXXX00XXXX00000000000000000000000101100XX</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2425,13 +2438,13 @@
       <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -2450,16 +2463,16 @@
         <v>22</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>10</v>
@@ -2471,85 +2484,85 @@
         <v>36</v>
       </c>
       <c r="V11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="W11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS11" s="6" t="s">
-        <v>17</v>
+      <c r="AS11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="AT11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX</v>
+        <f t="shared" si="1"/>
+        <v>0000XXXXXXXXXX000010001000XXXX0000000XXXX0000000000000XXXX101</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2579,10 +2592,10 @@
       <c r="K12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -2601,13 +2614,13 @@
         <v>17</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V12" s="6" t="s">
         <v>10</v>
@@ -2627,681 +2640,681 @@
       <c r="AA12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AB12" s="6" t="s">
+      <c r="AB12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AC12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AD12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AD14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AK12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ12" s="6" t="s">
+      <c r="AK14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AR12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT12" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="AR14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT14" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>0000XXXXXXXXXX000000XXXX00XXXX00000000001000000100000000000XX</v>
       </c>
     </row>
-    <row r="13" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="15" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="I15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="L15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR13" s="6" t="s">
+      <c r="O15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AS13" s="6" t="s">
+      <c r="AS15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AT13" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="AT15" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
       </c>
     </row>
-    <row r="14" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="6" t="s">
+    <row r="16" spans="1:46" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT14" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="O16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT16" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>0000XXXXXXXXXX111100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1000XX00XX00XX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS17" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
       <c r="AT17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0000XXXXXXXXXX100100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
@@ -3310,43 +3323,43 @@
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>10</v>
@@ -3430,14 +3443,14 @@
         <v>17</v>
       </c>
       <c r="AT18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>000101XXXXXXXX000010000100XXXX0000000XXXX0000000000000XXXX0XX</v>
+        <f t="shared" si="1"/>
+        <v>1000XX00XX00XX000000XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
@@ -3467,13 +3480,13 @@
         <v>17</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>10</v>
@@ -3488,13 +3501,13 @@
         <v>17</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V19" s="3" t="s">
         <v>10</v>
@@ -3518,7 +3531,7 @@
         <v>10</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD19" s="3" t="s">
         <v>10</v>
@@ -3569,14 +3582,14 @@
         <v>17</v>
       </c>
       <c r="AT19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX</v>
+        <f t="shared" si="1"/>
+        <v>0000XXXXXXXXXX100100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -3588,10 +3601,10 @@
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>17</v>
@@ -3615,16 +3628,16 @@
         <v>22</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>10</v>
@@ -3636,7 +3649,7 @@
         <v>36</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>10</v>
@@ -3660,7 +3673,7 @@
         <v>36</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE20" s="3" t="s">
         <v>10</v>
@@ -3708,14 +3721,14 @@
         <v>17</v>
       </c>
       <c r="AT20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX</v>
+        <f t="shared" si="1"/>
+        <v>000101XXXXXXXX000010000100XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -3766,13 +3779,13 @@
         <v>17</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>10</v>
@@ -3796,7 +3809,7 @@
         <v>10</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AD21" s="3" t="s">
         <v>10</v>
@@ -3817,7 +3830,7 @@
         <v>10</v>
       </c>
       <c r="AJ21" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK21" s="3" t="s">
         <v>10</v>
@@ -3838,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AR21" s="3" t="s">
         <v>10</v>
@@ -3847,17 +3860,17 @@
         <v>17</v>
       </c>
       <c r="AT21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX000000100000000000XX</v>
+        <f t="shared" si="1"/>
+        <v>0000XXXXXXXXXX000000XXXX110000000000000000000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>8</v>
@@ -3872,16 +3885,16 @@
         <v>17</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>10</v>
@@ -3914,7 +3927,7 @@
         <v>36</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>10</v>
@@ -3938,7 +3951,7 @@
         <v>36</v>
       </c>
       <c r="AD22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>10</v>
@@ -3980,152 +3993,430 @@
         <v>36</v>
       </c>
       <c r="AR22" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
+        <f t="shared" si="1"/>
+        <v>0000XXXXXXXXXX000000XXXX00XXXX1000000XXXX1000000000000XXXX0XX</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>0000XXXXXXXXXX000000XXXX00XXXX0000000XXXX000000100000000000XX</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1000XX01XX1100000000XXXX00XXXX0000000XXXX0000000000000XXXX100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="C25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT23" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="O25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT25" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>0000XXXXXXXXXX111100XXXX00XXXX0000000XXXX0000000000000XXXX0XX</v>
       </c>
     </row>
@@ -4134,12 +4425,12 @@
     <mergeCell ref="U1:AI1"/>
     <mergeCell ref="AJ1:AP1"/>
     <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A18:A25"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A5:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
